--- a/pred_ohlcv/54_21/2019-10-26 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ITC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>253017.9416</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>253017.9416</v>
       </c>
       <c r="H4">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>255914.6188</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>255554.5619</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>264795.6719</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>259465.1936</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>334858.2041</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>335482.8992</v>
       </c>
       <c r="H10">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>343008.0306</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>349857.4811</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>349857.4811</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>353186.2065</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>367772.866</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>452354.8767</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>459613.502</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>474921.4915</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>446852.3514</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>446852.3514</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>446852.3514</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>447189.8452</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>452992.8999</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>451392.8999</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>451392.8999</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>417029.0926</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>417029.0926</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>399561.9126</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>417379.9158</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>417379.9158</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>417379.9158</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>417381.0157999999</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>434882.1324191489</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>434882.1324191489</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>441892.1324191489</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>450082.6103191489</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>397997.6319191488</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>399196.6319191488</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>394601.4981191488</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>390907.7643191488</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>390907.7643191488</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>395807.7643191488</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>416137.7643191488</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>428313.4503191489</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>429998.2600051127</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>420573.8060051127</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>420222.1855051127</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>479192.0945051126</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>479192.0945051126</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>498351.5073051126</v>
       </c>
       <c r="H304">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>498351.5073051126</v>
       </c>
       <c r="H305">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>498266.4173051125</v>
       </c>
       <c r="H306">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>498280.3463051125</v>
       </c>
       <c r="H307">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>485942.6662051125</v>
       </c>
       <c r="H308">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>491504.2016051125</v>
       </c>
       <c r="H309">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>491504.2016051125</v>
       </c>
       <c r="H310">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H311">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H312">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H313">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>430346.3722051125</v>
       </c>
       <c r="H314">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>469286.2006051125</v>
       </c>
       <c r="H315">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>478294.7764051125</v>
       </c>
       <c r="H316">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H317">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H318">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H319">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>422480.5955051125</v>
       </c>
       <c r="H320">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>412826.4702051125</v>
       </c>
       <c r="H321">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8764,7 +8764,7 @@
         <v>405015.4266051125</v>
       </c>
       <c r="H322">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>396886.6062051125</v>
       </c>
       <c r="H325">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>405590.8637051125</v>
       </c>
       <c r="H326">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8894,7 +8894,7 @@
         <v>405449.8637051125</v>
       </c>
       <c r="H327">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H330">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H331">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>394149.5514051125</v>
       </c>
       <c r="H332">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>394149.5514051125</v>
       </c>
       <c r="H333">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>398761.2614051125</v>
       </c>
       <c r="H336">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>405437.5954051125</v>
       </c>
       <c r="H342">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>393326.9227051125</v>
       </c>
       <c r="H343">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>434307.9132312272</v>
       </c>
       <c r="H344">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>428362.8164828401</v>
       </c>
       <c r="H345">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>425939.7613828401</v>
       </c>
       <c r="H346">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>425939.7613828401</v>
       </c>
       <c r="H347">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>425939.7613828401</v>
       </c>
       <c r="H348">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>422465.4648828401</v>
       </c>
       <c r="H349">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>426761.17508284</v>
       </c>
       <c r="H361">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>426761.17508284</v>
       </c>
       <c r="H362">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>429911.68918284</v>
       </c>
       <c r="H363">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>429661.68918284</v>
       </c>
       <c r="H364">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H365">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H366">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H367">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H368">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H369">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H370">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H371">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>437197.01138284</v>
       </c>
       <c r="H372">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>436512.88008284</v>
       </c>
       <c r="H373">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>436512.88008284</v>
       </c>
       <c r="H374">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>447732.33288284</v>
       </c>
       <c r="H375">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>441784.85548284</v>
       </c>
       <c r="H376">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>441784.85548284</v>
       </c>
       <c r="H377">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>450734.9627672556</v>
       </c>
       <c r="H378">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>450536.3311672555</v>
       </c>
       <c r="H379">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>445536.2821672555</v>
       </c>
       <c r="H380">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>445536.2821672555</v>
       </c>
       <c r="H381">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>463482.9810672555</v>
       </c>
       <c r="H382">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>463482.9810672555</v>
       </c>
       <c r="H383">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H384">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H385">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H386">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>458295.0403672555</v>
       </c>
       <c r="H387">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H388">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H389">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H390">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H391">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H392">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H393">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>500768.8289672555</v>
       </c>
       <c r="H394">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>481626.0814672555</v>
       </c>
       <c r="H395">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>481626.0814672555</v>
       </c>
       <c r="H396">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>464224.1354672555</v>
       </c>
       <c r="H397">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>468369.0111672555</v>
       </c>
       <c r="H398">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>485118.5639672555</v>
       </c>
       <c r="H399">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H400">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H401">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H402">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>481454.7940672555</v>
       </c>
       <c r="H403">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>481454.7940672555</v>
       </c>
       <c r="H404">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H405">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H406">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H407">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H408">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H409">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H410">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H411">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H412">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H413">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>425919.4537672555</v>
       </c>
       <c r="H414">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>410404.0261672555</v>
       </c>
       <c r="H415">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -11208,7 +11208,7 @@
         <v>402711.0367672555</v>
       </c>
       <c r="H416">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417" spans="1:8">
@@ -11234,7 +11234,7 @@
         <v>402711.0367672555</v>
       </c>
       <c r="H417">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418" spans="1:8">
@@ -11260,7 +11260,7 @@
         <v>396521.5874672555</v>
       </c>
       <c r="H418">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>342834.073204834</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>341813.414504834</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>342436.414504834</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>337992.6134048341</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>325312.8186776232</v>
       </c>
       <c r="H602">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>321271.3251776232</v>
       </c>
       <c r="H610">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>321272.3251776232</v>
       </c>
       <c r="H611">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H614">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H615">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H616">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H617">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H618">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H619">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H620">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>311441.8101776232</v>
       </c>
       <c r="H621">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>310776.5075776232</v>
       </c>
       <c r="H622">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H623">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H624">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H625">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H626">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H627">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>303145.7089776231</v>
       </c>
       <c r="H629">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H630">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H631">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H632">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H633">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H634">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>298345.1968776232</v>
       </c>
       <c r="H635">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H636">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H637">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H638">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>297145.5380776232</v>
       </c>
       <c r="H639">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>299776.8373776232</v>
       </c>
       <c r="H640">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>299126.8373776232</v>
       </c>
       <c r="H641">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="642" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-26 ITC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-26 ITC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>253017.9416</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>253017.9416</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>255914.6188</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -626,7 +626,7 @@
         <v>334858.2041</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>335482.8992</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>343008.0306</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>349857.4811</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>349857.4811</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>353186.2065</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>367772.866</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>452354.8767</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>459613.502</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>474921.4915</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>446852.3514</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>446852.3514</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>446852.3514</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>447189.8452</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>452992.8999</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>451392.8999</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>451392.8999</v>
       </c>
       <c r="H25">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>417029.0926</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>417029.0926</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>399561.9126</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>417379.9158</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>417379.9158</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>417379.9158</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>417381.0157999999</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>434882.1324191489</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>434882.1324191489</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>441892.1324191489</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>450082.6103191489</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>397997.6319191488</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>399196.6319191488</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>394601.4981191488</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>390907.7643191488</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>390907.7643191488</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>395807.7643191488</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>416137.7643191488</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>415844.0650191489</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>428313.4503191489</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>442742.7250998496</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>441023.9738998496</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>441224.3568998496</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>429998.2600051127</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>429998.2600051127</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>427028.7744051127</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>424966.1392051127</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>420573.8060051127</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>428663.9649051127</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -8088,7 +8088,7 @@
         <v>442295.2048051125</v>
       </c>
       <c r="H296">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="297" spans="1:8">
@@ -8114,7 +8114,7 @@
         <v>442285.2048051125</v>
       </c>
       <c r="H297">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="298" spans="1:8">
@@ -8140,7 +8140,7 @@
         <v>455417.2759051125</v>
       </c>
       <c r="H298">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="299" spans="1:8">
@@ -8192,7 +8192,7 @@
         <v>468728.1185051125</v>
       </c>
       <c r="H300">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>463740.5880051125</v>
       </c>
       <c r="H301">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>479192.0945051126</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>479192.0945051126</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:8">
@@ -8296,7 +8296,7 @@
         <v>498351.5073051126</v>
       </c>
       <c r="H304">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="305" spans="1:8">
@@ -8322,7 +8322,7 @@
         <v>498351.5073051126</v>
       </c>
       <c r="H305">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="306" spans="1:8">
@@ -8348,7 +8348,7 @@
         <v>498266.4173051125</v>
       </c>
       <c r="H306">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="307" spans="1:8">
@@ -8374,7 +8374,7 @@
         <v>498280.3463051125</v>
       </c>
       <c r="H307">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="308" spans="1:8">
@@ -8400,7 +8400,7 @@
         <v>485942.6662051125</v>
       </c>
       <c r="H308">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="309" spans="1:8">
@@ -8426,7 +8426,7 @@
         <v>491504.2016051125</v>
       </c>
       <c r="H309">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="310" spans="1:8">
@@ -8452,7 +8452,7 @@
         <v>491504.2016051125</v>
       </c>
       <c r="H310">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="311" spans="1:8">
@@ -8478,7 +8478,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H311">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="312" spans="1:8">
@@ -8504,7 +8504,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H312">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="313" spans="1:8">
@@ -8530,7 +8530,7 @@
         <v>459857.4523051125</v>
       </c>
       <c r="H313">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="314" spans="1:8">
@@ -8556,7 +8556,7 @@
         <v>430346.3722051125</v>
       </c>
       <c r="H314">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="315" spans="1:8">
@@ -8582,7 +8582,7 @@
         <v>469286.2006051125</v>
       </c>
       <c r="H315">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="316" spans="1:8">
@@ -8608,7 +8608,7 @@
         <v>478294.7764051125</v>
       </c>
       <c r="H316">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="317" spans="1:8">
@@ -8634,7 +8634,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H317">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="318" spans="1:8">
@@ -8660,7 +8660,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H318">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:8">
@@ -8686,7 +8686,7 @@
         <v>452940.0157051125</v>
       </c>
       <c r="H319">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:8">
@@ -8712,7 +8712,7 @@
         <v>422480.5955051125</v>
       </c>
       <c r="H320">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:8">
@@ -8738,7 +8738,7 @@
         <v>412826.4702051125</v>
       </c>
       <c r="H321">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="322" spans="1:8">
@@ -8816,7 +8816,7 @@
         <v>405172.6983051125</v>
       </c>
       <c r="H324">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="325" spans="1:8">
@@ -8842,7 +8842,7 @@
         <v>396886.6062051125</v>
       </c>
       <c r="H325">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="326" spans="1:8">
@@ -8868,7 +8868,7 @@
         <v>405590.8637051125</v>
       </c>
       <c r="H326">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="327" spans="1:8">
@@ -8920,7 +8920,7 @@
         <v>400877.8121051125</v>
       </c>
       <c r="H328">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="329" spans="1:8">
@@ -8972,7 +8972,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H330">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="331" spans="1:8">
@@ -8998,7 +8998,7 @@
         <v>401420.9639051125</v>
       </c>
       <c r="H331">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="332" spans="1:8">
@@ -9024,7 +9024,7 @@
         <v>394149.5514051125</v>
       </c>
       <c r="H332">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="333" spans="1:8">
@@ -9050,7 +9050,7 @@
         <v>394149.5514051125</v>
       </c>
       <c r="H333">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:8">
@@ -9076,7 +9076,7 @@
         <v>394944.9780051125</v>
       </c>
       <c r="H334">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:8">
@@ -9102,7 +9102,7 @@
         <v>412788.8595051125</v>
       </c>
       <c r="H335">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:8">
@@ -9128,7 +9128,7 @@
         <v>398761.2614051125</v>
       </c>
       <c r="H336">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="337" spans="1:8">
@@ -9154,7 +9154,7 @@
         <v>398761.2614051125</v>
       </c>
       <c r="H337">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="338" spans="1:8">
@@ -9206,7 +9206,7 @@
         <v>396782.2614051125</v>
       </c>
       <c r="H339">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="340" spans="1:8">
@@ -9232,7 +9232,7 @@
         <v>396782.2614051125</v>
       </c>
       <c r="H340">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="341" spans="1:8">
@@ -9258,7 +9258,7 @@
         <v>398916.4702051125</v>
       </c>
       <c r="H341">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="342" spans="1:8">
@@ -9284,7 +9284,7 @@
         <v>405437.5954051125</v>
       </c>
       <c r="H342">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="343" spans="1:8">
@@ -9310,7 +9310,7 @@
         <v>393326.9227051125</v>
       </c>
       <c r="H343">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="344" spans="1:8">
@@ -9336,7 +9336,7 @@
         <v>434307.9132312272</v>
       </c>
       <c r="H344">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="345" spans="1:8">
@@ -9362,7 +9362,7 @@
         <v>428362.8164828401</v>
       </c>
       <c r="H345">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="346" spans="1:8">
@@ -9388,7 +9388,7 @@
         <v>425939.7613828401</v>
       </c>
       <c r="H346">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="347" spans="1:8">
@@ -9414,7 +9414,7 @@
         <v>425939.7613828401</v>
       </c>
       <c r="H347">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:8">
@@ -9440,7 +9440,7 @@
         <v>425939.7613828401</v>
       </c>
       <c r="H348">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:8">
@@ -9466,7 +9466,7 @@
         <v>422465.4648828401</v>
       </c>
       <c r="H349">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:8">
@@ -9492,7 +9492,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H350">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="351" spans="1:8">
@@ -9518,7 +9518,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H351">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="352" spans="1:8">
@@ -9544,7 +9544,7 @@
         <v>401920.0051828401</v>
       </c>
       <c r="H352">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="353" spans="1:8">
@@ -9674,7 +9674,7 @@
         <v>414482.3660828401</v>
       </c>
       <c r="H357">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="358" spans="1:8">
@@ -9700,7 +9700,7 @@
         <v>415717.52358284</v>
       </c>
       <c r="H358">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="359" spans="1:8">
@@ -9726,7 +9726,7 @@
         <v>414836.52358284</v>
       </c>
       <c r="H359">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="360" spans="1:8">
@@ -9752,7 +9752,7 @@
         <v>427072.17508284</v>
       </c>
       <c r="H360">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="361" spans="1:8">
@@ -9778,7 +9778,7 @@
         <v>426761.17508284</v>
       </c>
       <c r="H361">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="362" spans="1:8">
@@ -9804,7 +9804,7 @@
         <v>426761.17508284</v>
       </c>
       <c r="H362">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:8">
@@ -9830,7 +9830,7 @@
         <v>429911.68918284</v>
       </c>
       <c r="H363">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:8">
@@ -9856,7 +9856,7 @@
         <v>429661.68918284</v>
       </c>
       <c r="H364">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:8">
@@ -9882,7 +9882,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H365">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="366" spans="1:8">
@@ -9908,7 +9908,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H366">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="367" spans="1:8">
@@ -9934,7 +9934,7 @@
         <v>428769.68918284</v>
       </c>
       <c r="H367">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="368" spans="1:8">
@@ -9960,7 +9960,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H368">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="369" spans="1:8">
@@ -9986,7 +9986,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H369">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="370" spans="1:8">
@@ -10012,7 +10012,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H370">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="371" spans="1:8">
@@ -10038,7 +10038,7 @@
         <v>427464.74038284</v>
       </c>
       <c r="H371">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="372" spans="1:8">
@@ -10064,7 +10064,7 @@
         <v>437197.01138284</v>
       </c>
       <c r="H372">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="373" spans="1:8">
@@ -10090,7 +10090,7 @@
         <v>436512.88008284</v>
       </c>
       <c r="H373">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="374" spans="1:8">
@@ -10116,7 +10116,7 @@
         <v>436512.88008284</v>
       </c>
       <c r="H374">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="375" spans="1:8">
@@ -10142,7 +10142,7 @@
         <v>447732.33288284</v>
       </c>
       <c r="H375">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="376" spans="1:8">
@@ -10168,7 +10168,7 @@
         <v>441784.85548284</v>
       </c>
       <c r="H376">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:8">
@@ -10194,7 +10194,7 @@
         <v>441784.85548284</v>
       </c>
       <c r="H377">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:8">
@@ -10220,7 +10220,7 @@
         <v>450734.9627672556</v>
       </c>
       <c r="H378">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:8">
@@ -10246,7 +10246,7 @@
         <v>450536.3311672555</v>
       </c>
       <c r="H379">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="380" spans="1:8">
@@ -10272,7 +10272,7 @@
         <v>445536.2821672555</v>
       </c>
       <c r="H380">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="381" spans="1:8">
@@ -10298,7 +10298,7 @@
         <v>445536.2821672555</v>
       </c>
       <c r="H381">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382" spans="1:8">
@@ -10324,7 +10324,7 @@
         <v>463482.9810672555</v>
       </c>
       <c r="H382">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="383" spans="1:8">
@@ -10350,7 +10350,7 @@
         <v>463482.9810672555</v>
       </c>
       <c r="H383">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="384" spans="1:8">
@@ -10376,7 +10376,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H384">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="385" spans="1:8">
@@ -10402,7 +10402,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H385">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="386" spans="1:8">
@@ -10428,7 +10428,7 @@
         <v>465509.8742672555</v>
       </c>
       <c r="H386">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="387" spans="1:8">
@@ -10454,7 +10454,7 @@
         <v>458295.0403672555</v>
       </c>
       <c r="H387">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="388" spans="1:8">
@@ -10480,7 +10480,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H388">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="389" spans="1:8">
@@ -10506,7 +10506,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H389">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="390" spans="1:8">
@@ -10532,7 +10532,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H390">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:8">
@@ -10558,7 +10558,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H391">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:8">
@@ -10584,7 +10584,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H392">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:8">
@@ -10610,7 +10610,7 @@
         <v>500169.7685672555</v>
       </c>
       <c r="H393">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="394" spans="1:8">
@@ -10636,7 +10636,7 @@
         <v>500768.8289672555</v>
       </c>
       <c r="H394">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="395" spans="1:8">
@@ -10662,7 +10662,7 @@
         <v>481626.0814672555</v>
       </c>
       <c r="H395">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="396" spans="1:8">
@@ -10688,7 +10688,7 @@
         <v>481626.0814672555</v>
       </c>
       <c r="H396">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="397" spans="1:8">
@@ -10714,7 +10714,7 @@
         <v>464224.1354672555</v>
       </c>
       <c r="H397">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="398" spans="1:8">
@@ -10740,7 +10740,7 @@
         <v>468369.0111672555</v>
       </c>
       <c r="H398">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="399" spans="1:8">
@@ -10766,7 +10766,7 @@
         <v>485118.5639672555</v>
       </c>
       <c r="H399">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="400" spans="1:8">
@@ -10792,7 +10792,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H400">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="401" spans="1:8">
@@ -10818,7 +10818,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H401">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="402" spans="1:8">
@@ -10844,7 +10844,7 @@
         <v>480360.5640672555</v>
       </c>
       <c r="H402">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="403" spans="1:8">
@@ -10870,7 +10870,7 @@
         <v>481454.7940672555</v>
       </c>
       <c r="H403">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="404" spans="1:8">
@@ -10896,7 +10896,7 @@
         <v>481454.7940672555</v>
       </c>
       <c r="H404">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:8">
@@ -10922,7 +10922,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H405">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:8">
@@ -10948,7 +10948,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H406">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:8">
@@ -10974,7 +10974,7 @@
         <v>477494.7940672555</v>
       </c>
       <c r="H407">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="408" spans="1:8">
@@ -11000,7 +11000,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H408">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="409" spans="1:8">
@@ -11026,7 +11026,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H409">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="410" spans="1:8">
@@ -11052,7 +11052,7 @@
         <v>477513.5128672555</v>
       </c>
       <c r="H410">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="411" spans="1:8">
@@ -11078,7 +11078,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H411">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="412" spans="1:8">
@@ -11104,7 +11104,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H412">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="413" spans="1:8">
@@ -11130,7 +11130,7 @@
         <v>425975.4537672555</v>
       </c>
       <c r="H413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="414" spans="1:8">
@@ -11156,7 +11156,7 @@
         <v>425919.4537672555</v>
       </c>
       <c r="H414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="415" spans="1:8">
@@ -11182,7 +11182,7 @@
         <v>410404.0261672555</v>
       </c>
       <c r="H415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>342834.073204834</v>
       </c>
       <c r="H477">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>341813.414504834</v>
       </c>
       <c r="H479">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>342436.414504834</v>
       </c>
       <c r="H480">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>337992.6134048341</v>
       </c>
       <c r="H481">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -16044,7 +16044,7 @@
         <v>325312.8186776232</v>
       </c>
       <c r="H602">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603" spans="1:8">
@@ -16252,7 +16252,7 @@
         <v>321271.3251776232</v>
       </c>
       <c r="H610">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="611" spans="1:8">
@@ -16278,7 +16278,7 @@
         <v>321272.3251776232</v>
       </c>
       <c r="H611">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="612" spans="1:8">
@@ -16356,7 +16356,7 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H614">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="615" spans="1:8">
@@ -16382,7 +16382,7 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H615">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="616" spans="1:8">
@@ -16408,7 +16408,7 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H616">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="617" spans="1:8">
@@ -16434,7 +16434,7 @@
         <v>319708.5345776232</v>
       </c>
       <c r="H617">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="618" spans="1:8">
@@ -16460,7 +16460,7 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H618">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="619" spans="1:8">
@@ -16486,7 +16486,7 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H619">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="620" spans="1:8">
@@ -16512,7 +16512,7 @@
         <v>311440.8101776232</v>
       </c>
       <c r="H620">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="621" spans="1:8">
@@ -16538,7 +16538,7 @@
         <v>311441.8101776232</v>
       </c>
       <c r="H621">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="622" spans="1:8">
@@ -16564,7 +16564,7 @@
         <v>310776.5075776232</v>
       </c>
       <c r="H622">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="623" spans="1:8">
@@ -16590,7 +16590,7 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H623">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="624" spans="1:8">
@@ -16616,7 +16616,7 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H624">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="625" spans="1:8">
@@ -16642,7 +16642,7 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H625">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="626" spans="1:8">
@@ -16668,7 +16668,7 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H626">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="627" spans="1:8">
@@ -16694,7 +16694,7 @@
         <v>311125.6307776232</v>
       </c>
       <c r="H627">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="628" spans="1:8">
@@ -16746,7 +16746,7 @@
         <v>303145.7089776231</v>
       </c>
       <c r="H629">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="630" spans="1:8">
@@ -16772,7 +16772,7 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H630">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="631" spans="1:8">
@@ -16798,7 +16798,7 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H631">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="632" spans="1:8">
@@ -16824,7 +16824,7 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H632">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="633" spans="1:8">
@@ -16850,7 +16850,7 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H633">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="634" spans="1:8">
@@ -16876,7 +16876,7 @@
         <v>296675.4931776231</v>
       </c>
       <c r="H634">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="635" spans="1:8">
@@ -16902,7 +16902,7 @@
         <v>298345.1968776232</v>
       </c>
       <c r="H635">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="636" spans="1:8">
@@ -16928,7 +16928,7 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H636">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637" spans="1:8">
@@ -16954,7 +16954,7 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H637">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="638" spans="1:8">
@@ -16980,7 +16980,7 @@
         <v>297149.5380776232</v>
       </c>
       <c r="H638">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="639" spans="1:8">
@@ -17006,7 +17006,7 @@
         <v>297145.5380776232</v>
       </c>
       <c r="H639">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="640" spans="1:8">
@@ -17032,7 +17032,7 @@
         <v>299776.8373776232</v>
       </c>
       <c r="H640">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="641" spans="1:8">
@@ -17058,7 +17058,7 @@
         <v>299126.8373776232</v>
       </c>
       <c r="H641">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="642" spans="1:8">
